--- a/Archive/Requirements/Technical Requirements/Traceability Matrix/TAWA_RTM.xlsx
+++ b/Archive/Requirements/Technical Requirements/Traceability Matrix/TAWA_RTM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="225">
   <si>
     <t>CR</t>
   </si>
@@ -657,6 +657,48 @@
   <si>
     <t>TAWA_DB.USER
 TAWA_DB.MANAGE</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_001</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_002</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_003</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_004
+TAWA_Admin_005</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_006</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_007</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_008</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_009
+TAWA_Admin_010</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_014</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_015</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_016</t>
+  </si>
+  <si>
+    <t>TAWA_Admin_008
+TAWA_Admin_011
+TAWA_Admin_012
+TAWA_Admin_013
+TAWA_Admin_017</t>
   </si>
 </sst>
 </file>
@@ -753,11 +795,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1065,53 +1107,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="B105" workbookViewId="0">
+      <selection activeCell="H125" sqref="H125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="24" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
       <c r="E2" s="5" t="s">
         <v>193</v>
       </c>
@@ -1121,10 +1163,10 @@
       <c r="G2" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1144,7 +1186,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>112</v>
       </c>
@@ -1164,7 +1206,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>112</v>
       </c>
@@ -1184,7 +1226,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1204,7 +1246,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1224,7 +1266,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1244,7 +1286,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1264,7 +1306,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1284,7 +1326,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1304,7 +1346,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -1324,7 +1366,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1344,7 +1386,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -1364,7 +1406,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
@@ -1384,7 +1426,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
@@ -1404,7 +1446,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -1424,7 +1466,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
@@ -1444,7 +1486,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -1464,7 +1506,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
@@ -1480,11 +1522,14 @@
       <c r="G20" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="H20" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="I20" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>7</v>
       </c>
@@ -1501,7 +1546,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>7</v>
       </c>
@@ -1518,7 +1563,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>7</v>
       </c>
@@ -1538,7 +1583,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
@@ -1558,7 +1603,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>7</v>
       </c>
@@ -1578,7 +1623,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
@@ -1598,7 +1643,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>7</v>
       </c>
@@ -1615,7 +1660,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>7</v>
       </c>
@@ -1632,7 +1677,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
@@ -1649,7 +1694,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
@@ -1669,7 +1714,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>7</v>
       </c>
@@ -1689,7 +1734,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>7</v>
       </c>
@@ -1709,7 +1754,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>7</v>
       </c>
@@ -1729,7 +1774,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>7</v>
       </c>
@@ -1749,7 +1794,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>114</v>
       </c>
@@ -1766,7 +1811,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>114</v>
       </c>
@@ -1783,7 +1828,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>114</v>
       </c>
@@ -1800,7 +1845,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>114</v>
       </c>
@@ -1817,7 +1862,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>114</v>
       </c>
@@ -1834,7 +1879,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>114</v>
       </c>
@@ -1851,7 +1896,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>7</v>
       </c>
@@ -1868,7 +1913,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>7</v>
       </c>
@@ -1885,7 +1930,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>7</v>
       </c>
@@ -1902,7 +1947,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>7</v>
       </c>
@@ -1919,7 +1964,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>7</v>
       </c>
@@ -1936,7 +1981,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>7</v>
       </c>
@@ -1953,7 +1998,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>7</v>
       </c>
@@ -1970,7 +2015,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>7</v>
       </c>
@@ -1990,7 +2035,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>112</v>
       </c>
@@ -2006,11 +2051,14 @@
       <c r="G49" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="H49" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="I49" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>7</v>
       </c>
@@ -2026,11 +2074,14 @@
       <c r="G50" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="H50" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="I50" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>7</v>
       </c>
@@ -2047,7 +2098,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>7</v>
       </c>
@@ -2064,7 +2115,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>165</v>
       </c>
@@ -2083,8 +2134,11 @@
       <c r="G53" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H53" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>165</v>
       </c>
@@ -2103,8 +2157,11 @@
       <c r="G54" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H54" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>165</v>
       </c>
@@ -2123,8 +2180,11 @@
       <c r="G55" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H55" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>165</v>
       </c>
@@ -2143,8 +2203,11 @@
       <c r="G56" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H56" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>165</v>
       </c>
@@ -2163,8 +2226,11 @@
       <c r="G57" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H57" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>165</v>
       </c>
@@ -2183,10 +2249,12 @@
       <c r="G58" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H58"/>
+      <c r="H58" s="7" t="s">
+        <v>224</v>
+      </c>
       <c r="I58"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>117</v>
       </c>
@@ -2203,7 +2271,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>117</v>
       </c>
@@ -2220,7 +2288,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>117</v>
       </c>
@@ -2237,7 +2305,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>117</v>
       </c>
@@ -2254,7 +2322,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>114</v>
       </c>
@@ -2267,11 +2335,11 @@
       <c r="D63" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G63" s="8" t="s">
+      <c r="G63" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>114</v>
       </c>
@@ -2288,7 +2356,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>114</v>
       </c>
@@ -2305,7 +2373,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>114</v>
       </c>
@@ -2318,11 +2386,11 @@
       <c r="D66" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G66" s="8" t="s">
+      <c r="G66" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>114</v>
       </c>
@@ -2335,11 +2403,11 @@
       <c r="D67" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G67" s="8" t="s">
+      <c r="G67" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>114</v>
       </c>
@@ -2352,11 +2420,11 @@
       <c r="D68" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G68" s="8" t="s">
+      <c r="G68" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>129</v>
       </c>
@@ -2373,7 +2441,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>129</v>
       </c>
@@ -2390,7 +2458,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>129</v>
       </c>
@@ -2407,7 +2475,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>129</v>
       </c>
@@ -2424,7 +2492,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>129</v>
       </c>
@@ -2443,7 +2511,7 @@
       <c r="H73"/>
       <c r="I73"/>
     </row>
-    <row r="74" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>117</v>
       </c>
@@ -2456,13 +2524,13 @@
       <c r="D74" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G74" s="8" t="s">
+      <c r="G74" s="7" t="s">
         <v>208</v>
       </c>
       <c r="H74"/>
       <c r="I74"/>
     </row>
-    <row r="75" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>117</v>
       </c>
@@ -2475,13 +2543,13 @@
       <c r="D75" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G75" s="8" t="s">
+      <c r="G75" s="7" t="s">
         <v>208</v>
       </c>
       <c r="H75"/>
       <c r="I75"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>117</v>
       </c>
@@ -2494,13 +2562,13 @@
       <c r="D76" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G76" s="8" t="s">
+      <c r="G76" s="7" t="s">
         <v>209</v>
       </c>
       <c r="H76"/>
       <c r="I76"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>117</v>
       </c>
@@ -2513,13 +2581,13 @@
       <c r="D77" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G77" s="8" t="s">
+      <c r="G77" s="7" t="s">
         <v>209</v>
       </c>
       <c r="H77"/>
       <c r="I77"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>117</v>
       </c>
@@ -2532,13 +2600,13 @@
       <c r="D78" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G78" s="8" t="s">
+      <c r="G78" s="7" t="s">
         <v>209</v>
       </c>
       <c r="H78"/>
       <c r="I78"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>117</v>
       </c>
@@ -2551,13 +2619,13 @@
       <c r="D79" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G79" s="8" t="s">
+      <c r="G79" s="7" t="s">
         <v>209</v>
       </c>
       <c r="H79"/>
       <c r="I79"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>126</v>
       </c>
@@ -2576,7 +2644,7 @@
       <c r="H80"/>
       <c r="I80"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>126</v>
       </c>
@@ -2595,7 +2663,7 @@
       <c r="H81"/>
       <c r="I81"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>117</v>
       </c>
@@ -2614,7 +2682,7 @@
       <c r="H82"/>
       <c r="I82"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>129</v>
       </c>
@@ -2633,7 +2701,7 @@
       <c r="H83"/>
       <c r="I83"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>126</v>
       </c>
@@ -2652,7 +2720,7 @@
       <c r="H84"/>
       <c r="I84"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>126</v>
       </c>
@@ -2671,7 +2739,7 @@
       <c r="H85"/>
       <c r="I85"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>126</v>
       </c>
@@ -2690,7 +2758,7 @@
       <c r="H86"/>
       <c r="I86"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>126</v>
       </c>
@@ -2709,7 +2777,7 @@
       <c r="H87"/>
       <c r="I87"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>122</v>
       </c>
@@ -2728,7 +2796,7 @@
       <c r="H88"/>
       <c r="I88"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>122</v>
       </c>
@@ -2747,7 +2815,7 @@
       <c r="H89"/>
       <c r="I89"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>126</v>
       </c>
@@ -2766,7 +2834,7 @@
       <c r="H90"/>
       <c r="I90"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>126</v>
       </c>
@@ -2785,7 +2853,7 @@
       <c r="H91"/>
       <c r="I91"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>126</v>
       </c>
@@ -2804,7 +2872,7 @@
       <c r="H92"/>
       <c r="I92"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>126</v>
       </c>
@@ -2823,7 +2891,7 @@
       <c r="H93"/>
       <c r="I93"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>126</v>
       </c>
@@ -2842,7 +2910,7 @@
       <c r="H94"/>
       <c r="I94"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>126</v>
       </c>
@@ -2861,7 +2929,7 @@
       <c r="H95"/>
       <c r="I95"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>126</v>
       </c>
@@ -2880,7 +2948,7 @@
       <c r="H96"/>
       <c r="I96"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>126</v>
       </c>
@@ -2899,7 +2967,7 @@
       <c r="H97"/>
       <c r="I97"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>126</v>
       </c>
@@ -2918,7 +2986,7 @@
       <c r="H98"/>
       <c r="I98"/>
     </row>
-    <row r="99" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>129</v>
       </c>
@@ -2931,13 +2999,13 @@
       <c r="D99" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G99" s="8" t="s">
+      <c r="G99" s="7" t="s">
         <v>211</v>
       </c>
       <c r="H99"/>
       <c r="I99"/>
     </row>
-    <row r="100" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>129</v>
       </c>
@@ -2950,13 +3018,13 @@
       <c r="D100" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G100" s="8" t="s">
+      <c r="G100" s="7" t="s">
         <v>211</v>
       </c>
       <c r="H100"/>
       <c r="I100"/>
     </row>
-    <row r="101" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>129</v>
       </c>
@@ -2969,13 +3037,13 @@
       <c r="D101" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G101" s="8" t="s">
+      <c r="G101" s="7" t="s">
         <v>211</v>
       </c>
       <c r="H101"/>
       <c r="I101"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>129</v>
       </c>
@@ -2994,7 +3062,7 @@
       <c r="H102"/>
       <c r="I102"/>
     </row>
-    <row r="103" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>117</v>
       </c>
@@ -3010,13 +3078,15 @@
       <c r="F103" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="G103" s="8" t="s">
+      <c r="G103" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H103"/>
+      <c r="H103" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="I103"/>
     </row>
-    <row r="104" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>117</v>
       </c>
@@ -3032,13 +3102,15 @@
       <c r="F104" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G104" s="8" t="s">
+      <c r="G104" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H104"/>
+      <c r="H104" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="I104"/>
     </row>
-    <row r="105" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>117</v>
       </c>
@@ -3054,13 +3126,15 @@
       <c r="F105" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G105" s="8" t="s">
+      <c r="G105" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H105"/>
+      <c r="H105" s="1" t="s">
+        <v>223</v>
+      </c>
       <c r="I105"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>117</v>
       </c>
@@ -3079,7 +3153,7 @@
       <c r="H106"/>
       <c r="I106"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>122</v>
       </c>
@@ -3098,7 +3172,7 @@
       <c r="H107"/>
       <c r="I107"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>114</v>
       </c>
@@ -3117,7 +3191,7 @@
       <c r="H108"/>
       <c r="I108"/>
     </row>
-    <row r="109" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>117</v>
       </c>
@@ -3130,7 +3204,7 @@
       <c r="D109" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G109" s="8" t="s">
+      <c r="G109" s="7" t="s">
         <v>205</v>
       </c>
       <c r="H109"/>

--- a/Archive/Requirements/Technical Requirements/Traceability Matrix/TAWA_RTM.xlsx
+++ b/Archive/Requirements/Technical Requirements/Traceability Matrix/TAWA_RTM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="241">
   <si>
     <t>CR</t>
   </si>
@@ -699,6 +699,61 @@
 TAWA_Admin_012
 TAWA_Admin_013
 TAWA_Admin_017</t>
+  </si>
+  <si>
+    <t>TAWA_BOOKING_01
+TAWA_BOOKING_17
+TAWA_BOOKING_13
+TAWA_BOOKING_14</t>
+  </si>
+  <si>
+    <t>TAWA_BOOKING_01
+TAWA_BOOKING_10</t>
+  </si>
+  <si>
+    <t>TAWA_BOOKING_01</t>
+  </si>
+  <si>
+    <t>TAWA_BOOKING_02</t>
+  </si>
+  <si>
+    <t>TAWA_BOOKING_03</t>
+  </si>
+  <si>
+    <t>TAWA_BOOKING_04</t>
+  </si>
+  <si>
+    <t>TAWA_BOOKING_05
+TAWA_BOOKING_12</t>
+  </si>
+  <si>
+    <t>TAWA_BOOKING_18</t>
+  </si>
+  <si>
+    <t>TAWA_BOOKING_06</t>
+  </si>
+  <si>
+    <t>TAWA_BOOKING_07</t>
+  </si>
+  <si>
+    <t>TAWA_BOOKING_08
+TAWA_BOOKING_09</t>
+  </si>
+  <si>
+    <t>TAWA_BOOKING_01
+TAWA_BOOKING_03</t>
+  </si>
+  <si>
+    <t>TAWA_SIQ_011</t>
+  </si>
+  <si>
+    <t>TAWA_BOOKING_15</t>
+  </si>
+  <si>
+    <t>TAWA_SIQ_052</t>
+  </si>
+  <si>
+    <t>TAWA_BOOKING_16</t>
   </si>
 </sst>
 </file>
@@ -775,7 +830,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -800,6 +855,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1105,26 +1169,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B105" workbookViewId="0">
-      <selection activeCell="H125" sqref="H125"/>
+    <sheetView tabSelected="1" topLeftCell="B99" workbookViewId="0">
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="24" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1149,7 +1213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -1166,7 +1230,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1186,7 +1250,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>112</v>
       </c>
@@ -1206,7 +1270,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>112</v>
       </c>
@@ -1226,7 +1290,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1246,7 +1310,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1266,7 +1330,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1286,7 +1350,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1306,7 +1370,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1326,7 +1390,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1346,7 +1410,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -1366,7 +1430,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1386,7 +1450,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -1406,7 +1470,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
@@ -1426,7 +1490,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
@@ -1446,7 +1510,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -1466,7 +1530,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
@@ -1486,7 +1550,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -1506,7 +1570,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
@@ -1529,7 +1593,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>7</v>
       </c>
@@ -1546,7 +1610,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>7</v>
       </c>
@@ -1563,7 +1627,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>7</v>
       </c>
@@ -1583,7 +1647,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
@@ -1603,7 +1667,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>7</v>
       </c>
@@ -1623,7 +1687,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
@@ -1643,7 +1707,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>7</v>
       </c>
@@ -1660,7 +1724,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>7</v>
       </c>
@@ -1677,7 +1741,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
@@ -1694,7 +1758,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
@@ -1714,7 +1778,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>7</v>
       </c>
@@ -1734,7 +1798,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>7</v>
       </c>
@@ -1754,7 +1818,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>7</v>
       </c>
@@ -1774,7 +1838,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>7</v>
       </c>
@@ -1794,7 +1858,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>114</v>
       </c>
@@ -1811,7 +1875,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>114</v>
       </c>
@@ -1828,7 +1892,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>114</v>
       </c>
@@ -1845,7 +1909,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>114</v>
       </c>
@@ -1862,7 +1926,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>114</v>
       </c>
@@ -1879,7 +1943,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>114</v>
       </c>
@@ -1896,7 +1960,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>7</v>
       </c>
@@ -1913,7 +1977,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>7</v>
       </c>
@@ -1930,7 +1994,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>7</v>
       </c>
@@ -1947,7 +2011,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>7</v>
       </c>
@@ -1964,7 +2028,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>7</v>
       </c>
@@ -1981,7 +2045,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>7</v>
       </c>
@@ -1998,7 +2062,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>7</v>
       </c>
@@ -2015,7 +2079,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>7</v>
       </c>
@@ -2035,7 +2099,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>112</v>
       </c>
@@ -2058,7 +2122,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>7</v>
       </c>
@@ -2081,7 +2145,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>7</v>
       </c>
@@ -2098,7 +2162,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>7</v>
       </c>
@@ -2115,7 +2179,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>165</v>
       </c>
@@ -2138,7 +2202,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>165</v>
       </c>
@@ -2161,7 +2225,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>165</v>
       </c>
@@ -2184,7 +2248,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>165</v>
       </c>
@@ -2207,7 +2271,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>165</v>
       </c>
@@ -2230,7 +2294,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>165</v>
       </c>
@@ -2254,7 +2318,7 @@
       </c>
       <c r="I58"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>117</v>
       </c>
@@ -2271,7 +2335,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>117</v>
       </c>
@@ -2288,7 +2352,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>117</v>
       </c>
@@ -2305,7 +2369,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>117</v>
       </c>
@@ -2322,7 +2386,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>114</v>
       </c>
@@ -2339,7 +2403,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>114</v>
       </c>
@@ -2356,7 +2420,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>114</v>
       </c>
@@ -2373,7 +2437,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>114</v>
       </c>
@@ -2390,7 +2454,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>114</v>
       </c>
@@ -2407,7 +2471,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>114</v>
       </c>
@@ -2424,7 +2488,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>129</v>
       </c>
@@ -2441,7 +2505,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>129</v>
       </c>
@@ -2458,7 +2522,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>129</v>
       </c>
@@ -2475,7 +2539,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>129</v>
       </c>
@@ -2492,7 +2556,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>129</v>
       </c>
@@ -2511,7 +2575,7 @@
       <c r="H73"/>
       <c r="I73"/>
     </row>
-    <row r="74" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>117</v>
       </c>
@@ -2530,7 +2594,7 @@
       <c r="H74"/>
       <c r="I74"/>
     </row>
-    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>117</v>
       </c>
@@ -2549,7 +2613,7 @@
       <c r="H75"/>
       <c r="I75"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>117</v>
       </c>
@@ -2568,7 +2632,7 @@
       <c r="H76"/>
       <c r="I76"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>117</v>
       </c>
@@ -2587,7 +2651,7 @@
       <c r="H77"/>
       <c r="I77"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>117</v>
       </c>
@@ -2606,7 +2670,7 @@
       <c r="H78"/>
       <c r="I78"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>117</v>
       </c>
@@ -2625,7 +2689,7 @@
       <c r="H79"/>
       <c r="I79"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>126</v>
       </c>
@@ -2644,7 +2708,7 @@
       <c r="H80"/>
       <c r="I80"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>126</v>
       </c>
@@ -2663,7 +2727,7 @@
       <c r="H81"/>
       <c r="I81"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>117</v>
       </c>
@@ -2682,7 +2746,7 @@
       <c r="H82"/>
       <c r="I82"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>129</v>
       </c>
@@ -2701,7 +2765,7 @@
       <c r="H83"/>
       <c r="I83"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>126</v>
       </c>
@@ -2717,10 +2781,12 @@
       <c r="G84" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H84"/>
+      <c r="H84" s="9" t="s">
+        <v>225</v>
+      </c>
       <c r="I84"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>126</v>
       </c>
@@ -2736,10 +2802,12 @@
       <c r="G85" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H85"/>
+      <c r="H85" s="9" t="s">
+        <v>226</v>
+      </c>
       <c r="I85"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>126</v>
       </c>
@@ -2755,10 +2823,12 @@
       <c r="G86" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H86"/>
+      <c r="H86" s="10" t="s">
+        <v>227</v>
+      </c>
       <c r="I86"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>126</v>
       </c>
@@ -2774,10 +2844,12 @@
       <c r="G87" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H87"/>
+      <c r="H87" s="10" t="s">
+        <v>228</v>
+      </c>
       <c r="I87"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>122</v>
       </c>
@@ -2793,10 +2865,12 @@
       <c r="G88" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H88"/>
+      <c r="H88" s="10" t="s">
+        <v>227</v>
+      </c>
       <c r="I88"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>122</v>
       </c>
@@ -2812,10 +2886,12 @@
       <c r="G89" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H89"/>
+      <c r="H89" s="10" t="s">
+        <v>229</v>
+      </c>
       <c r="I89"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>126</v>
       </c>
@@ -2831,10 +2907,12 @@
       <c r="G90" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H90"/>
+      <c r="H90" s="10" t="s">
+        <v>227</v>
+      </c>
       <c r="I90"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>126</v>
       </c>
@@ -2850,10 +2928,12 @@
       <c r="G91" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H91"/>
+      <c r="H91" s="10" t="s">
+        <v>230</v>
+      </c>
       <c r="I91"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>126</v>
       </c>
@@ -2869,10 +2949,12 @@
       <c r="G92" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H92"/>
+      <c r="H92" s="9" t="s">
+        <v>231</v>
+      </c>
       <c r="I92"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>126</v>
       </c>
@@ -2888,10 +2970,12 @@
       <c r="G93" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H93"/>
+      <c r="H93" s="10" t="s">
+        <v>227</v>
+      </c>
       <c r="I93"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>126</v>
       </c>
@@ -2907,10 +2991,12 @@
       <c r="G94" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H94"/>
+      <c r="H94" s="10" t="s">
+        <v>232</v>
+      </c>
       <c r="I94"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>126</v>
       </c>
@@ -2926,10 +3012,12 @@
       <c r="G95" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H95"/>
+      <c r="H95" s="10" t="s">
+        <v>233</v>
+      </c>
       <c r="I95"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>126</v>
       </c>
@@ -2945,10 +3033,12 @@
       <c r="G96" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H96"/>
+      <c r="H96" s="10" t="s">
+        <v>234</v>
+      </c>
       <c r="I96"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>126</v>
       </c>
@@ -2964,10 +3054,12 @@
       <c r="G97" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H97"/>
+      <c r="H97" s="10" t="s">
+        <v>227</v>
+      </c>
       <c r="I97"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>126</v>
       </c>
@@ -2983,10 +3075,12 @@
       <c r="G98" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H98"/>
+      <c r="H98" s="11" t="s">
+        <v>235</v>
+      </c>
       <c r="I98"/>
     </row>
-    <row r="99" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>129</v>
       </c>
@@ -3005,7 +3099,7 @@
       <c r="H99"/>
       <c r="I99"/>
     </row>
-    <row r="100" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>129</v>
       </c>
@@ -3024,7 +3118,7 @@
       <c r="H100"/>
       <c r="I100"/>
     </row>
-    <row r="101" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>129</v>
       </c>
@@ -3043,7 +3137,7 @@
       <c r="H101"/>
       <c r="I101"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>129</v>
       </c>
@@ -3062,7 +3156,7 @@
       <c r="H102"/>
       <c r="I102"/>
     </row>
-    <row r="103" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>117</v>
       </c>
@@ -3086,7 +3180,7 @@
       </c>
       <c r="I103"/>
     </row>
-    <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>117</v>
       </c>
@@ -3110,7 +3204,7 @@
       </c>
       <c r="I104"/>
     </row>
-    <row r="105" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>117</v>
       </c>
@@ -3134,7 +3228,7 @@
       </c>
       <c r="I105"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>117</v>
       </c>
@@ -3153,7 +3247,7 @@
       <c r="H106"/>
       <c r="I106"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>122</v>
       </c>
@@ -3169,10 +3263,12 @@
       <c r="G107" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H107"/>
+      <c r="H107" s="9" t="s">
+        <v>236</v>
+      </c>
       <c r="I107"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>114</v>
       </c>
@@ -3191,7 +3287,7 @@
       <c r="H108"/>
       <c r="I108"/>
     </row>
-    <row r="109" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>117</v>
       </c>
@@ -3209,6 +3305,22 @@
       </c>
       <c r="H109"/>
       <c r="I109"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B110" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H110" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B111" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="H111" s="10" t="s">
+        <v>240</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Archive/Requirements/Technical Requirements/Traceability Matrix/TAWA_RTM.xlsx
+++ b/Archive/Requirements/Technical Requirements/Traceability Matrix/TAWA_RTM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="269">
   <si>
     <t>CR</t>
   </si>
@@ -754,6 +754,90 @@
   </si>
   <si>
     <t>TAWA_BOOKING_16</t>
+  </si>
+  <si>
+    <t>(registration.php) file-- &lt;inpu id="lname"&gt;</t>
+  </si>
+  <si>
+    <t>(registration.php) file-- &lt;inpu id="email"&gt;</t>
+  </si>
+  <si>
+    <t>(registration.php) file-- &lt;inpu id="email" type="email"&gt;</t>
+  </si>
+  <si>
+    <t>(registration.php) file-- &lt;inpu id="password"&gt;</t>
+  </si>
+  <si>
+    <t>(regidtration.php) file --- function validationform()</t>
+  </si>
+  <si>
+    <t>(registration.php) file-- &lt;inpu id="namel"&gt;</t>
+  </si>
+  <si>
+    <t>(registration.php) file-- &lt;inpu id="phone" &gt;</t>
+  </si>
+  <si>
+    <t>(registration.php) file-- &lt;button  type="submit" &gt;</t>
+  </si>
+  <si>
+    <t>(login.php) file-- &lt;button  type="login" &gt;</t>
+  </si>
+  <si>
+    <t>(login.php) file-- &lt;input  id="username" &gt;</t>
+  </si>
+  <si>
+    <t>(login.php) file-- &lt;input  id="pass" &gt;</t>
+  </si>
+  <si>
+    <t>(login.php) file-- &lt;a  id="forget password" &gt;</t>
+  </si>
+  <si>
+    <t>(Home view.php) file --- href="../Log-Reg-UI/registration.php"</t>
+  </si>
+  <si>
+    <t>admin.php file</t>
+  </si>
+  <si>
+    <t>(login.php) file-- &lt;a  href="registratiom.html" &gt;</t>
+  </si>
+  <si>
+    <t>(registration.php) file-- &lt;a  href="""login.html" &gt;</t>
+  </si>
+  <si>
+    <t>(registration.php) file</t>
+  </si>
+  <si>
+    <t>(registration.php) file -- &lt;div class="p-t-15"&gt; &lt;label&gt; user</t>
+  </si>
+  <si>
+    <t>(registration.php) file -- &lt;div class="p-t-15"&gt;&lt;label &gt; admin</t>
+  </si>
+  <si>
+    <t>(registration.php) file-- &lt;a href="login.html"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Home view.php) file </t>
+  </si>
+  <si>
+    <t>(Home view.php) file --&lt;div id="btnContainer"&gt;</t>
+  </si>
+  <si>
+    <t>(rating &amp; feedback.php)</t>
+  </si>
+  <si>
+    <t>(rating &amp; feedback.php)&lt;!-- Rating Stars Box --&gt;</t>
+  </si>
+  <si>
+    <t>(Home view.php) file --&lt;button value="Read More"&gt;</t>
+  </si>
+  <si>
+    <t>(malaysia/Dubai/Turkey/sriLanka).html -files</t>
+  </si>
+  <si>
+    <t>(malaysia/Dubai/Turkey/sriLanka).html -files----&lt;input value="Write feedback"&gt;</t>
+  </si>
+  <si>
+    <t>(malaysia/Dubai/Turkey/sriLanka).html -files----&lt;input value="Book Now"&gt;</t>
   </si>
 </sst>
 </file>
@@ -776,7 +860,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -786,6 +870,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,7 +920,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -853,9 +943,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -864,6 +951,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1171,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B99" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1181,43 +1277,43 @@
     <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.44140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="22.44140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="24" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="5" t="s">
         <v>193</v>
       </c>
@@ -1227,8 +1323,8 @@
       <c r="G2" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -1303,6 +1399,9 @@
       <c r="D6" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="F6" s="12" t="s">
+        <v>241</v>
+      </c>
       <c r="G6" s="1" t="s">
         <v>202</v>
       </c>
@@ -1323,6 +1422,7 @@
       <c r="D7" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="F7" s="13"/>
       <c r="G7" s="1" t="s">
         <v>202</v>
       </c>
@@ -1343,6 +1443,9 @@
       <c r="D8" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="F8" s="12" t="s">
+        <v>242</v>
+      </c>
       <c r="G8" s="1" t="s">
         <v>202</v>
       </c>
@@ -1350,7 +1453,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1363,6 +1466,9 @@
       <c r="D9" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="F9" s="12" t="s">
+        <v>243</v>
+      </c>
       <c r="G9" s="1" t="s">
         <v>202</v>
       </c>
@@ -1370,7 +1476,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1383,6 +1489,9 @@
       <c r="D10" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="F10" s="12" t="s">
+        <v>243</v>
+      </c>
       <c r="G10" s="1" t="s">
         <v>202</v>
       </c>
@@ -1390,7 +1499,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1403,6 +1512,9 @@
       <c r="D11" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="F11" s="12" t="s">
+        <v>243</v>
+      </c>
       <c r="G11" s="1" t="s">
         <v>202</v>
       </c>
@@ -1443,6 +1555,9 @@
       <c r="D13" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="F13" s="12" t="s">
+        <v>244</v>
+      </c>
       <c r="G13" s="1" t="s">
         <v>202</v>
       </c>
@@ -1463,6 +1578,9 @@
       <c r="D14" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="F14" s="13" t="s">
+        <v>245</v>
+      </c>
       <c r="G14" s="1" t="s">
         <v>202</v>
       </c>
@@ -1483,6 +1601,9 @@
       <c r="D15" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="F15" s="12" t="s">
+        <v>246</v>
+      </c>
       <c r="G15" s="1" t="s">
         <v>202</v>
       </c>
@@ -1503,6 +1624,9 @@
       <c r="D16" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="F16" s="13" t="s">
+        <v>245</v>
+      </c>
       <c r="G16" s="1" t="s">
         <v>202</v>
       </c>
@@ -1523,6 +1647,9 @@
       <c r="D17" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="F17" s="12" t="s">
+        <v>247</v>
+      </c>
       <c r="G17" s="1" t="s">
         <v>202</v>
       </c>
@@ -1543,6 +1670,9 @@
       <c r="D18" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="F18" s="13" t="s">
+        <v>245</v>
+      </c>
       <c r="G18" s="1" t="s">
         <v>202</v>
       </c>
@@ -1563,6 +1693,9 @@
       <c r="D19" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="F19" s="12" t="s">
+        <v>248</v>
+      </c>
       <c r="G19" s="1" t="s">
         <v>202</v>
       </c>
@@ -1583,6 +1716,9 @@
       <c r="D20" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="F20" s="12" t="s">
+        <v>249</v>
+      </c>
       <c r="G20" s="1" t="s">
         <v>204</v>
       </c>
@@ -1606,6 +1742,9 @@
       <c r="D21" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="F21" s="12" t="s">
+        <v>250</v>
+      </c>
       <c r="G21" s="1" t="s">
         <v>202</v>
       </c>
@@ -1623,6 +1762,9 @@
       <c r="D22" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="F22" s="12" t="s">
+        <v>251</v>
+      </c>
       <c r="G22" s="1" t="s">
         <v>202</v>
       </c>
@@ -1640,6 +1782,9 @@
       <c r="D23" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="F23" s="13" t="s">
+        <v>245</v>
+      </c>
       <c r="G23" s="1" t="s">
         <v>202</v>
       </c>
@@ -1660,6 +1805,9 @@
       <c r="D24" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="F24" s="13" t="s">
+        <v>245</v>
+      </c>
       <c r="G24" s="1" t="s">
         <v>202</v>
       </c>
@@ -1680,6 +1828,9 @@
       <c r="D25" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="F25" s="13" t="s">
+        <v>245</v>
+      </c>
       <c r="G25" s="1" t="s">
         <v>202</v>
       </c>
@@ -1700,6 +1851,9 @@
       <c r="D26" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="F26" s="13" t="s">
+        <v>245</v>
+      </c>
       <c r="G26" s="1" t="s">
         <v>202</v>
       </c>
@@ -1720,6 +1874,9 @@
       <c r="D27" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="F27" s="12" t="s">
+        <v>252</v>
+      </c>
       <c r="G27" s="1" t="s">
         <v>204</v>
       </c>
@@ -1737,6 +1894,9 @@
       <c r="D28" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="F28" s="12" t="s">
+        <v>252</v>
+      </c>
       <c r="G28" s="1" t="s">
         <v>204</v>
       </c>
@@ -1771,6 +1931,9 @@
       <c r="D30" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="F30" s="13" t="s">
+        <v>245</v>
+      </c>
       <c r="G30" s="1" t="s">
         <v>204</v>
       </c>
@@ -1791,6 +1954,9 @@
       <c r="D31" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="F31" s="13" t="s">
+        <v>245</v>
+      </c>
       <c r="G31" s="1" t="s">
         <v>204</v>
       </c>
@@ -1811,6 +1977,9 @@
       <c r="D32" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="F32" s="13" t="s">
+        <v>245</v>
+      </c>
       <c r="G32" s="1" t="s">
         <v>204</v>
       </c>
@@ -1831,6 +2000,9 @@
       <c r="D33" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="F33" s="13" t="s">
+        <v>245</v>
+      </c>
       <c r="G33" s="1" t="s">
         <v>204</v>
       </c>
@@ -1850,6 +2022,9 @@
       </c>
       <c r="D34" s="1" t="s">
         <v>111</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>245</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>204</v>
@@ -1871,6 +2046,9 @@
       <c r="D35" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="F35" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="G35" s="1" t="s">
         <v>204</v>
       </c>
@@ -1888,6 +2066,9 @@
       <c r="D36" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="F36" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="G36" s="1" t="s">
         <v>204</v>
       </c>
@@ -1905,6 +2086,9 @@
       <c r="D37" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="F37" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="G37" s="1" t="s">
         <v>204</v>
       </c>
@@ -1922,6 +2106,9 @@
       <c r="D38" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="F38" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="G38" s="1" t="s">
         <v>202</v>
       </c>
@@ -1939,6 +2126,9 @@
       <c r="D39" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="F39" s="1" t="s">
+        <v>254</v>
+      </c>
       <c r="G39" s="1" t="s">
         <v>203</v>
       </c>
@@ -1956,6 +2146,9 @@
       <c r="D40" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="F40" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="G40" s="1" t="s">
         <v>204</v>
       </c>
@@ -1973,6 +2166,9 @@
       <c r="D41" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="F41" s="12" t="s">
+        <v>255</v>
+      </c>
       <c r="G41" s="1" t="s">
         <v>204</v>
       </c>
@@ -1990,6 +2186,9 @@
       <c r="D42" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="F42" s="12" t="s">
+        <v>255</v>
+      </c>
       <c r="G42" s="1" t="s">
         <v>204</v>
       </c>
@@ -2007,6 +2206,9 @@
       <c r="D43" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="F43" s="12" t="s">
+        <v>255</v>
+      </c>
       <c r="G43" s="1" t="s">
         <v>204</v>
       </c>
@@ -2024,6 +2226,9 @@
       <c r="D44" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="F44" s="12" t="s">
+        <v>256</v>
+      </c>
       <c r="G44" s="1" t="s">
         <v>204</v>
       </c>
@@ -2041,6 +2246,9 @@
       <c r="D45" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="F45" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="G45" s="1" t="s">
         <v>204</v>
       </c>
@@ -2058,6 +2266,9 @@
       <c r="D46" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="F46" s="1" t="s">
+        <v>258</v>
+      </c>
       <c r="G46" s="1" t="s">
         <v>202</v>
       </c>
@@ -2075,11 +2286,14 @@
       <c r="D47" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="F47" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="G47" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>7</v>
       </c>
@@ -2091,6 +2305,9 @@
       </c>
       <c r="D48" s="1" t="s">
         <v>111</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>243</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>202</v>
@@ -2135,6 +2352,9 @@
       <c r="D50" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="F50" s="13" t="s">
+        <v>245</v>
+      </c>
       <c r="G50" s="1" t="s">
         <v>202</v>
       </c>
@@ -2158,6 +2378,9 @@
       <c r="D51" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="F51" s="13" t="s">
+        <v>245</v>
+      </c>
       <c r="G51" s="1" t="s">
         <v>204</v>
       </c>
@@ -2174,6 +2397,9 @@
       </c>
       <c r="D52" s="1" t="s">
         <v>111</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>260</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>204</v>
@@ -2365,6 +2591,9 @@
       <c r="D61" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="F61" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="G61" s="1" t="s">
         <v>204</v>
       </c>
@@ -2382,6 +2611,9 @@
       <c r="D62" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="F62" s="12" t="s">
+        <v>249</v>
+      </c>
       <c r="G62" s="1" t="s">
         <v>204</v>
       </c>
@@ -2416,6 +2648,9 @@
       <c r="D64" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="F64" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="G64" s="1" t="s">
         <v>204</v>
       </c>
@@ -2433,6 +2668,9 @@
       <c r="D65" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="F65" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="G65" s="1" t="s">
         <v>204</v>
       </c>
@@ -2450,6 +2688,9 @@
       <c r="D66" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="F66" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="G66" s="7" t="s">
         <v>205</v>
       </c>
@@ -2467,6 +2708,9 @@
       <c r="D67" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="F67" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="G67" s="7" t="s">
         <v>205</v>
       </c>
@@ -2501,6 +2745,9 @@
       <c r="D69" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="F69" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="G69" s="1" t="s">
         <v>206</v>
       </c>
@@ -2518,6 +2765,9 @@
       <c r="D70" s="1" t="s">
         <v>133</v>
       </c>
+      <c r="F70" s="1" t="s">
+        <v>264</v>
+      </c>
       <c r="G70" s="1" t="s">
         <v>207</v>
       </c>
@@ -2535,6 +2785,9 @@
       <c r="D71" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="F71" s="1" t="s">
+        <v>264</v>
+      </c>
       <c r="G71" s="1" t="s">
         <v>207</v>
       </c>
@@ -2552,6 +2805,9 @@
       <c r="D72" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="F72" s="1" t="s">
+        <v>264</v>
+      </c>
       <c r="G72" s="1" t="s">
         <v>207</v>
       </c>
@@ -2569,6 +2825,9 @@
       <c r="D73" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="F73" s="1" t="s">
+        <v>264</v>
+      </c>
       <c r="G73" s="1" t="s">
         <v>207</v>
       </c>
@@ -2588,6 +2847,9 @@
       <c r="D74" s="1" t="s">
         <v>133</v>
       </c>
+      <c r="F74" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="G74" s="7" t="s">
         <v>208</v>
       </c>
@@ -2607,6 +2869,9 @@
       <c r="D75" s="1" t="s">
         <v>133</v>
       </c>
+      <c r="F75" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="G75" s="7" t="s">
         <v>208</v>
       </c>
@@ -2626,6 +2891,9 @@
       <c r="D76" s="1" t="s">
         <v>133</v>
       </c>
+      <c r="F76" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="G76" s="7" t="s">
         <v>209</v>
       </c>
@@ -2645,6 +2913,9 @@
       <c r="D77" s="1" t="s">
         <v>133</v>
       </c>
+      <c r="F77" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="G77" s="7" t="s">
         <v>209</v>
       </c>
@@ -2683,6 +2954,9 @@
       <c r="D79" s="1" t="s">
         <v>133</v>
       </c>
+      <c r="F79" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="G79" s="7" t="s">
         <v>209</v>
       </c>
@@ -2702,6 +2976,9 @@
       <c r="D80" s="1" t="s">
         <v>133</v>
       </c>
+      <c r="F80" s="1" t="s">
+        <v>268</v>
+      </c>
       <c r="G80" s="1" t="s">
         <v>204</v>
       </c>
@@ -2721,6 +2998,9 @@
       <c r="D81" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="F81" s="1" t="s">
+        <v>268</v>
+      </c>
       <c r="G81" s="1" t="s">
         <v>204</v>
       </c>
@@ -2740,6 +3020,9 @@
       <c r="D82" s="1" t="s">
         <v>133</v>
       </c>
+      <c r="F82" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="G82" s="1" t="s">
         <v>204</v>
       </c>
@@ -2759,6 +3042,9 @@
       <c r="D83" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="F83" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="G83" s="1" t="s">
         <v>207</v>
       </c>
@@ -2781,7 +3067,7 @@
       <c r="G84" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H84" s="9" t="s">
+      <c r="H84" s="8" t="s">
         <v>225</v>
       </c>
       <c r="I84"/>
@@ -2802,7 +3088,7 @@
       <c r="G85" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H85" s="9" t="s">
+      <c r="H85" s="8" t="s">
         <v>226</v>
       </c>
       <c r="I85"/>
@@ -2823,7 +3109,7 @@
       <c r="G86" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H86" s="10" t="s">
+      <c r="H86" s="9" t="s">
         <v>227</v>
       </c>
       <c r="I86"/>
@@ -2844,7 +3130,7 @@
       <c r="G87" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H87" s="10" t="s">
+      <c r="H87" s="9" t="s">
         <v>228</v>
       </c>
       <c r="I87"/>
@@ -2865,7 +3151,7 @@
       <c r="G88" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H88" s="10" t="s">
+      <c r="H88" s="9" t="s">
         <v>227</v>
       </c>
       <c r="I88"/>
@@ -2886,7 +3172,7 @@
       <c r="G89" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H89" s="10" t="s">
+      <c r="H89" s="9" t="s">
         <v>229</v>
       </c>
       <c r="I89"/>
@@ -2907,7 +3193,7 @@
       <c r="G90" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H90" s="10" t="s">
+      <c r="H90" s="9" t="s">
         <v>227</v>
       </c>
       <c r="I90"/>
@@ -2928,7 +3214,7 @@
       <c r="G91" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H91" s="10" t="s">
+      <c r="H91" s="9" t="s">
         <v>230</v>
       </c>
       <c r="I91"/>
@@ -2949,7 +3235,7 @@
       <c r="G92" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H92" s="9" t="s">
+      <c r="H92" s="8" t="s">
         <v>231</v>
       </c>
       <c r="I92"/>
@@ -2970,7 +3256,7 @@
       <c r="G93" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H93" s="10" t="s">
+      <c r="H93" s="9" t="s">
         <v>227</v>
       </c>
       <c r="I93"/>
@@ -2991,7 +3277,7 @@
       <c r="G94" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H94" s="10" t="s">
+      <c r="H94" s="9" t="s">
         <v>232</v>
       </c>
       <c r="I94"/>
@@ -3012,7 +3298,7 @@
       <c r="G95" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H95" s="10" t="s">
+      <c r="H95" s="9" t="s">
         <v>233</v>
       </c>
       <c r="I95"/>
@@ -3033,7 +3319,7 @@
       <c r="G96" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H96" s="10" t="s">
+      <c r="H96" s="9" t="s">
         <v>234</v>
       </c>
       <c r="I96"/>
@@ -3054,7 +3340,7 @@
       <c r="G97" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H97" s="10" t="s">
+      <c r="H97" s="9" t="s">
         <v>227</v>
       </c>
       <c r="I97"/>
@@ -3075,7 +3361,7 @@
       <c r="G98" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H98" s="11" t="s">
+      <c r="H98" s="10" t="s">
         <v>235</v>
       </c>
       <c r="I98"/>
@@ -3263,7 +3549,7 @@
       <c r="G107" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H107" s="9" t="s">
+      <c r="H107" s="8" t="s">
         <v>236</v>
       </c>
       <c r="I107"/>
@@ -3310,7 +3596,7 @@
       <c r="B110" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="H110" s="10" t="s">
+      <c r="H110" s="9" t="s">
         <v>238</v>
       </c>
     </row>
@@ -3318,7 +3604,7 @@
       <c r="B111" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H111" s="10" t="s">
+      <c r="H111" s="9" t="s">
         <v>240</v>
       </c>
     </row>

--- a/Archive/Requirements/Technical Requirements/Traceability Matrix/TAWA_RTM.xlsx
+++ b/Archive/Requirements/Technical Requirements/Traceability Matrix/TAWA_RTM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="282">
   <si>
     <t>CR</t>
   </si>
@@ -838,6 +838,49 @@
   </si>
   <si>
     <t>(malaysia/Dubai/Turkey/sriLanka).html -files----&lt;input value="Book Now"&gt;</t>
+  </si>
+  <si>
+    <t>TAWA_Destination_001</t>
+  </si>
+  <si>
+    <t>TAWA_Destination_002</t>
+  </si>
+  <si>
+    <t>TAWA_Destination_003</t>
+  </si>
+  <si>
+    <t>TAWA_Destination_004</t>
+  </si>
+  <si>
+    <t>TAWA_Destination_005</t>
+  </si>
+  <si>
+    <t>TAWA_Destination_006</t>
+  </si>
+  <si>
+    <t>TAWA_HomePage_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAWA_HomePage_004 
+TAWA_HomePage_005
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+TAWA_HomePage_006
+</t>
+  </si>
+  <si>
+    <t>TAWA_HomePage_007</t>
+  </si>
+  <si>
+    <t>TAWA_HomePage_008</t>
+  </si>
+  <si>
+    <t>TAWA_HomePage_010</t>
+  </si>
+  <si>
+    <t>TAWA_HomePage_013</t>
   </si>
 </sst>
 </file>
@@ -920,7 +963,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -952,14 +995,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1268,7 +1317,7 @@
   <dimension ref="A1:I111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1278,42 +1327,42 @@
     <col min="3" max="3" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="54.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="67.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="22.44140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="24" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="5" t="s">
         <v>193</v>
       </c>
@@ -1323,8 +1372,8 @@
       <c r="G2" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -1399,7 +1448,7 @@
       <c r="D6" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>241</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -1422,7 +1471,7 @@
       <c r="D7" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="1" t="s">
         <v>202</v>
       </c>
@@ -1443,7 +1492,7 @@
       <c r="D8" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>242</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -1466,7 +1515,7 @@
       <c r="D9" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="11" t="s">
         <v>243</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -1489,7 +1538,7 @@
       <c r="D10" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>243</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -1512,7 +1561,7 @@
       <c r="D11" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>243</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -1555,7 +1604,7 @@
       <c r="D13" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="11" t="s">
         <v>244</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1578,7 +1627,7 @@
       <c r="D14" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="12" t="s">
         <v>245</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -1601,7 +1650,7 @@
       <c r="D15" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="11" t="s">
         <v>246</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -1624,7 +1673,7 @@
       <c r="D16" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="12" t="s">
         <v>245</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -1647,7 +1696,7 @@
       <c r="D17" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="11" t="s">
         <v>247</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -1670,7 +1719,7 @@
       <c r="D18" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="12" t="s">
         <v>245</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -1693,7 +1742,7 @@
       <c r="D19" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="11" t="s">
         <v>248</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -1716,7 +1765,7 @@
       <c r="D20" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="11" t="s">
         <v>249</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -1742,7 +1791,7 @@
       <c r="D21" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="11" t="s">
         <v>250</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -1762,7 +1811,7 @@
       <c r="D22" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="11" t="s">
         <v>251</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -1782,7 +1831,7 @@
       <c r="D23" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="12" t="s">
         <v>245</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -1805,7 +1854,7 @@
       <c r="D24" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="12" t="s">
         <v>245</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -1828,7 +1877,7 @@
       <c r="D25" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="12" t="s">
         <v>245</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -1851,7 +1900,7 @@
       <c r="D26" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="12" t="s">
         <v>245</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -1874,7 +1923,7 @@
       <c r="D27" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="11" t="s">
         <v>252</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -1894,7 +1943,7 @@
       <c r="D28" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="11" t="s">
         <v>252</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -1931,7 +1980,7 @@
       <c r="D30" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="12" t="s">
         <v>245</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -1954,7 +2003,7 @@
       <c r="D31" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="12" t="s">
         <v>245</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -1977,7 +2026,7 @@
       <c r="D32" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="12" t="s">
         <v>245</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -2000,7 +2049,7 @@
       <c r="D33" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="12" t="s">
         <v>245</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -2023,7 +2072,7 @@
       <c r="D34" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="12" t="s">
         <v>245</v>
       </c>
       <c r="G34" s="1" t="s">
@@ -2052,8 +2101,11 @@
       <c r="G35" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H35" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>114</v>
       </c>
@@ -2072,8 +2124,11 @@
       <c r="G36" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H36" s="15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>114</v>
       </c>
@@ -2091,6 +2146,9 @@
       </c>
       <c r="G37" s="1" t="s">
         <v>204</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2166,7 +2224,7 @@
       <c r="D41" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="F41" s="11" t="s">
         <v>255</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -2186,7 +2244,7 @@
       <c r="D42" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F42" s="12" t="s">
+      <c r="F42" s="11" t="s">
         <v>255</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -2206,7 +2264,7 @@
       <c r="D43" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F43" s="11" t="s">
         <v>255</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -2226,7 +2284,7 @@
       <c r="D44" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F44" s="11" t="s">
         <v>256</v>
       </c>
       <c r="G44" s="1" t="s">
@@ -2293,7 +2351,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>7</v>
       </c>
@@ -2306,7 +2364,7 @@
       <c r="D48" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F48" s="12" t="s">
+      <c r="F48" s="11" t="s">
         <v>243</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -2352,7 +2410,7 @@
       <c r="D50" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F50" s="12" t="s">
         <v>245</v>
       </c>
       <c r="G50" s="1" t="s">
@@ -2378,7 +2436,7 @@
       <c r="D51" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F51" s="12" t="s">
         <v>245</v>
       </c>
       <c r="G51" s="1" t="s">
@@ -2398,7 +2456,7 @@
       <c r="D52" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F52" s="12" t="s">
+      <c r="F52" s="11" t="s">
         <v>260</v>
       </c>
       <c r="G52" s="1" t="s">
@@ -2611,7 +2669,7 @@
       <c r="D62" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F62" s="12" t="s">
+      <c r="F62" s="11" t="s">
         <v>249</v>
       </c>
       <c r="G62" s="1" t="s">
@@ -2634,6 +2692,9 @@
       <c r="G63" s="7" t="s">
         <v>205</v>
       </c>
+      <c r="H63" s="1" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
@@ -2654,6 +2715,9 @@
       <c r="G64" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="H64" s="1" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
@@ -2674,6 +2738,9 @@
       <c r="G65" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="H65" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="66" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
@@ -2853,7 +2920,9 @@
       <c r="G74" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="H74"/>
+      <c r="H74" t="s">
+        <v>281</v>
+      </c>
       <c r="I74"/>
     </row>
     <row r="75" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -2875,7 +2944,9 @@
       <c r="G75" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="H75"/>
+      <c r="H75" t="s">
+        <v>281</v>
+      </c>
       <c r="I75"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
@@ -2897,7 +2968,9 @@
       <c r="G76" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="H76"/>
+      <c r="H76" t="s">
+        <v>269</v>
+      </c>
       <c r="I76"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
@@ -2919,7 +2992,9 @@
       <c r="G77" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="H77"/>
+      <c r="H77" t="s">
+        <v>270</v>
+      </c>
       <c r="I77"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
@@ -2938,7 +3013,9 @@
       <c r="G78" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="H78"/>
+      <c r="H78" t="s">
+        <v>271</v>
+      </c>
       <c r="I78"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
@@ -2960,7 +3037,9 @@
       <c r="G79" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="H79"/>
+      <c r="H79" t="s">
+        <v>272</v>
+      </c>
       <c r="I79"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
@@ -2982,7 +3061,9 @@
       <c r="G80" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H80"/>
+      <c r="H80" t="s">
+        <v>273</v>
+      </c>
       <c r="I80"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -3004,7 +3085,9 @@
       <c r="G81" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H81"/>
+      <c r="H81" t="s">
+        <v>274</v>
+      </c>
       <c r="I81"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -3026,7 +3109,9 @@
       <c r="G82" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H82"/>
+      <c r="H82" t="s">
+        <v>272</v>
+      </c>
       <c r="I82"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">

--- a/Archive/Requirements/Technical Requirements/Traceability Matrix/TAWA_RTM.xlsx
+++ b/Archive/Requirements/Technical Requirements/Traceability Matrix/TAWA_RTM.xlsx
@@ -1001,14 +1001,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1316,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="H144" sqref="H144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1334,35 +1334,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
       <c r="E2" s="5" t="s">
         <v>193</v>
       </c>
@@ -1372,8 +1372,8 @@
       <c r="G2" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -1502,7 +1502,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -2101,7 +2101,7 @@
       <c r="G35" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H35" s="14" t="s">
+      <c r="H35" s="13" t="s">
         <v>275</v>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
       <c r="G36" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H36" s="14" t="s">
         <v>276</v>
       </c>
     </row>
@@ -2147,7 +2147,7 @@
       <c r="G37" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H37" s="15" t="s">
+      <c r="H37" s="14" t="s">
         <v>277</v>
       </c>
     </row>
